--- a/data/trans_camb/P23_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>-7,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,41</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,65</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 13,92</t>
+          <t>-3,82; 14,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,89; -0,16</t>
+          <t>-10,96; 1,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 6,33</t>
+          <t>-6,73; 9,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 8,04</t>
+          <t>-6,0; 12,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 2,85</t>
+          <t>-3,53; 12,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 10,38</t>
+          <t>-8,63; 6,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 6,48</t>
+          <t>-11,24; 3,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -0,38</t>
+          <t>-14,48; -0,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 5,24</t>
+          <t>-3,67; 9,29</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-15,84; 2,81</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 7,82</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; -0,09</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 2,28</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 8,66</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 6,55</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>51,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-67,87%</t>
+          <t>-62,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,88%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,07%</t>
+          <t>33,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-29,21%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>-8,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>-29,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-44,49%</t>
+          <t>-56,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>34,52%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-40,21%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,44%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-42,14%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-30,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>35,9%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-3,36%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,58; 225,77</t>
+          <t>-38,05; 237,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 13,59</t>
+          <t>-91,63; 61,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,44; 120,51</t>
+          <t>-60,13; 178,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 82,54</t>
+          <t>-46,54; 261,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,28; 33,44</t>
+          <t>-39,84; 259,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,37; 110,34</t>
+          <t>-50,42; 73,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 73,8</t>
+          <t>-63,26; 40,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,71; -2,88</t>
+          <t>-81,57; 1,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 59,25</t>
+          <t>-43,6; 305,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-78,87; 42,83</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-31,71; 94,02</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-67,97; 1,24</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-61,2; 31,5</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-30,2; 157,16</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-45,41; 92,57</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,62</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,41</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 15,39</t>
+          <t>-2,43; 18,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 14,89</t>
+          <t>-3,27; 16,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 13,88</t>
+          <t>-5,61; 7,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 8,95</t>
+          <t>-2,87; 15,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 16,71</t>
+          <t>-8,75; 10,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 4,75</t>
+          <t>-3,22; 9,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 10,24</t>
+          <t>2,62; 17,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 13,4</t>
+          <t>-5,31; 8,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 7,37</t>
+          <t>-9,95; 4,77</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 6,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 11,59</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 13,69</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; 6,46</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 7,25</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 6,26</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>59,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,35%</t>
+          <t>50,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,76%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>86,7%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,49%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,35%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>-21,73%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-2,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>71,24%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,28; 239,59</t>
+          <t>-27,64; 295,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 236,76</t>
+          <t>-32,9; 268,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 239,79</t>
+          <t>-45,75; 131,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 121,12</t>
+          <t>-24,44; 217,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 222,11</t>
+          <t>-45,51; 105,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,9; 58,31</t>
+          <t>-22,44; 124,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 123,77</t>
+          <t>17,21; 233,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 163,63</t>
+          <t>-41,89; 113,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 96,65</t>
+          <t>-62,23; 63,38</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-51,56; 112,48</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; 147,11</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 173,22</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-33,98; 76,98</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-28,73; 84,88</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-36,67; 63,57</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-7,61</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,17</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 1,55</t>
+          <t>-8,0; 3,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 8,6</t>
+          <t>-1,8; 11,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 7,22</t>
+          <t>-4,42; 8,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 12,6</t>
+          <t>-4,71; 11,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 9,36</t>
+          <t>-5,84; 10,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 12,04</t>
+          <t>0,86; 12,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 5,66</t>
+          <t>-1,62; 9,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 7,96</t>
+          <t>-7,26; 3,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 8,4</t>
+          <t>-5,66; 5,36</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-14,25; -1,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 6,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 8,62</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 4,07</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 7,2</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 2,59</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-29,0%</t>
+          <t>-15,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>52,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>-14,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>-3,26%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-40,75%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>32,11%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-15,36%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,87; 15,87</t>
+          <t>-47,59; 37,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,55; 80,99</t>
+          <t>-12,23; 112,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,25; 67,43</t>
+          <t>-28,08; 85,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,93; 126,47</t>
+          <t>-27,27; 91,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 97,77</t>
+          <t>-32,1; 88,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 114,7</t>
+          <t>5,42; 123,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 50,06</t>
+          <t>-11,12; 96,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 73,08</t>
+          <t>-44,5; 34,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 73,58</t>
+          <t>-41,5; 57,76</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-63,65; -6,89</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-12,31; 59,56</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 78,04</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-28,25; 37,24</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-20,31; 62,5</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-39,5; 18,08</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>11,86</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>7,87</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 8,58</t>
+          <t>-3,97; 9,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 8,71</t>
+          <t>-5,16; 8,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 10,64</t>
+          <t>-10,13; 2,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 8,61</t>
+          <t>5,49; 19,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 9,21</t>
+          <t>-2,68; 13,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 9,82</t>
+          <t>-2,51; 8,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 7,05</t>
+          <t>-1,52; 10,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 7,35</t>
+          <t>-5,79; 5,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 8,54</t>
+          <t>-2,18; 10,05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; 6,89</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 6,8</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 7,89</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-6,02; 2,67</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3,13; 12,37</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 8,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>-23,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>115,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>26,69%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-1,19%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22,89%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24,61%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-11,37%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>64,8%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 85,75</t>
+          <t>-23,47; 97,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 84,79</t>
+          <t>-31,36; 87,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 101,41</t>
+          <t>-57,49; 29,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 75,12</t>
+          <t>37,39; 253,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 81,99</t>
+          <t>-13,16; 105,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 81,86</t>
+          <t>-15,44; 74,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 60,45</t>
+          <t>-9,06; 91,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 65,24</t>
+          <t>-35,12; 45,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 71,46</t>
+          <t>-12,92; 89,49</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-32,77; 48,23</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; 60,38</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; 69,82</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-37,69; 25,05</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 118,04</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-15,23; 56,06</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,89</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>4,67</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 4,28</t>
+          <t>-10,1; 3,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 3,07</t>
+          <t>-11,12; 2,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 8,08</t>
+          <t>-8,55; 7,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 13,85</t>
+          <t>-1,99; 15,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 6,61</t>
+          <t>-2,12; 14,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,05; 14,93</t>
+          <t>0,76; 14,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,88</t>
+          <t>-5,93; 6,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 3,03</t>
+          <t>-3,48; 10,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 9,51</t>
+          <t>-5,38; 9,35</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-10,88; 4,95</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 7,8</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 3,05</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 7,74</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 9,97</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 7,3</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-16,01%</t>
+          <t>-15,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-21,3%</t>
+          <t>-19,87%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>65,64%</t>
+          <t>45,28%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>67,28%</t>
+          <t>66,16%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-9,74%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-14,74%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-9,71%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>29,77%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-46,17; 36,65</t>
+          <t>-46,19; 28,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-51,9; 25,07</t>
+          <t>-51,15; 23,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 59,69</t>
+          <t>-41,22; 59,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,01; 152,78</t>
+          <t>-9,47; 129,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 77,07</t>
+          <t>-9,94; 112,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,43; 169,61</t>
+          <t>2,77; 159,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 60,96</t>
+          <t>-39,82; 69,74</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 26,34</t>
+          <t>-23,28; 120,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 78,15</t>
+          <t>-28,93; 84,3</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-45,95; 31,76</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-12,77; 64,78</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-36,72; 24,11</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-25,44; 67,22</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-7,81; 75,63</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-18,75; 45,54</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
           <t>3,5</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>5,72</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4,78</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3,01</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 12,5</t>
+          <t>-8,1; 10,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 14,82</t>
+          <t>-5,67; 14,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 15,11</t>
+          <t>-8,26; 10,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 8,59</t>
+          <t>-7,98; 9,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 10,64</t>
+          <t>-11,56; 6,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 11,01</t>
+          <t>-5,72; 8,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 8,39</t>
+          <t>-4,26; 11,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 10,79</t>
+          <t>-4,95; 11,68</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 10,77</t>
+          <t>-3,2; 15,0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 17,2</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 7,44</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 11,11</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 8,88</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 10,03</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 9,15</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>51,54%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>-15,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>37,63%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>50,01%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>24,65%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>17,74%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-54,3; 150,98</t>
+          <t>-50,1; 139,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 174,48</t>
+          <t>-34,94; 179,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 193,09</t>
+          <t>-51,01; 132,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 114,62</t>
+          <t>-41,76; 89,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 143,9</t>
+          <t>-51,69; 45,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 136,38</t>
+          <t>-35,56; 96,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 101,07</t>
+          <t>-30,22; 136,21</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 121,86</t>
+          <t>-33,76; 131,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 124,81</t>
+          <t>-18,12; 131,88</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-12,88; 176,66</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-27,86; 82,72</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 124,62</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-20,32; 99,87</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-14,39; 84,24</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-22,17; 72,84</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 4,05</t>
+          <t>-1,63; 4,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 4,44</t>
+          <t>-1,48; 4,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 5,53</t>
+          <t>-3,0; 3,13</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,49</t>
+          <t>2,21; 8,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,26; 5,58</t>
+          <t>-1,02; 5,96</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,47</t>
+          <t>0,89; 6,14</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,41</t>
+          <t>0,8; 5,83</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,31</t>
+          <t>-3,03; 2,61</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,06</t>
+          <t>-0,93; 5,31</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 2,2</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 4,68</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 4,51</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 2,18</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 5,84</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 3,18</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>42,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>16,14%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-7,13%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>20,01%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>29,43%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 35,66</t>
+          <t>-12,04; 45,21</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 38,28</t>
+          <t>-11,24; 43,44</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 49,94</t>
+          <t>-22,48; 30,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,72; 57,92</t>
+          <t>15,82; 81,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>1,44; 48,49</t>
+          <t>-5,96; 42,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,96; 57,83</t>
+          <t>6,2; 54,63</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 38,41</t>
+          <t>5,73; 50,68</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>0,77; 37,88</t>
+          <t>-21,72; 22,18</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3,9; 44,36</t>
+          <t>-6,66; 48,14</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-24,03; 16,42</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 40,77</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 39,01</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-14,67; 19,1</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 50,12</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-9,43; 22,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
